--- a/Project plan/projectPlanDraft.xlsx
+++ b/Project plan/projectPlanDraft.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tobias/Google Drev/UNI/Master-Thesis-Fall-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tobias/Google Drev/UNI/Master-Thesis-Fall-2020/Project plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD67F1B-6E12-F24A-931E-3291D3B5EB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9246420-D524-1A4D-AE24-573BA6485F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16320" xr2:uid="{29CC9C6B-4FB4-F74F-9503-1F4B9B3718F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,12 +105,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,14 +137,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -157,127 +171,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -604,7 +497,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,24 +509,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -647,7 +540,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -665,7 +558,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -680,7 +573,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -698,7 +591,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -713,7 +606,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -728,7 +621,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -746,7 +639,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -761,7 +654,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -776,7 +669,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -791,7 +684,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -806,7 +699,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -821,7 +714,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -836,7 +729,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -851,7 +744,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -866,7 +759,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -881,7 +774,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -899,7 +792,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -914,7 +807,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -932,7 +825,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -950,7 +843,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -968,7 +861,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -999,10 +892,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D23">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1">
@@ -1017,12 +910,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">

--- a/Project plan/projectPlanDraft.xlsx
+++ b/Project plan/projectPlanDraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tobias/Google Drev/UNI/Master-Thesis-Fall-2020/Project plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9246420-D524-1A4D-AE24-573BA6485F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94708D4D-43AE-A443-8181-DCC7E59A657F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16320" xr2:uid="{29CC9C6B-4FB4-F74F-9503-1F4B9B3718F9}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Project plan, initial models on MNIST, litterature study</t>
   </si>
   <si>
-    <t>Litterature study</t>
-  </si>
-  <si>
     <t>Create and test improved model for MNIST</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Method and results for MNIST</t>
+  </si>
+  <si>
+    <t>Litterature study / trying things</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,13 +548,13 @@
         <v>44081</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>44088</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -581,13 +581,13 @@
         <v>44095</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>44102</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -614,7 +614,7 @@
         <v>44109</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -629,13 +629,13 @@
         <v>44116</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>44123</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -662,7 +662,7 @@
         <v>44130</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -677,7 +677,7 @@
         <v>44137</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -692,7 +692,7 @@
         <v>44144</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -707,7 +707,7 @@
         <v>44151</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -722,7 +722,7 @@
         <v>44158</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>44165</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>44172</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -767,7 +767,7 @@
         <v>44179</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -782,13 +782,13 @@
         <v>44186</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>44193</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -815,13 +815,13 @@
         <v>44200</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,13 +833,13 @@
         <v>44207</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,13 +851,13 @@
         <v>44214</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -869,13 +869,13 @@
         <v>44221</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
